--- a/文档资料/报价.xlsx
+++ b/文档资料/报价.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="36" windowWidth="15336" windowHeight="9672" activeTab="2"/>
+    <workbookView xWindow="192" yWindow="36" windowWidth="15336" windowHeight="9672"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="2" r:id="rId1"/>
-    <sheet name="2" sheetId="4" r:id="rId2"/>
-    <sheet name="3" sheetId="6" r:id="rId3"/>
-    <sheet name="以前的主动带球" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="3" sheetId="6" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="以前的主动带球" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
   <si>
     <t>轮架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木箱-大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,15 +550,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>守门员外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前向视觉盖板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前向视觉保护盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门员外壳前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门员外壳后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢钣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧向轮固定座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向轮固定座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tue线圈</t>
+  </si>
+  <si>
+    <t>线圈外管</t>
+  </si>
+  <si>
+    <t>线圈屏蔽后盖</t>
+  </si>
+  <si>
+    <t>线圈安装法兰-tue</t>
+  </si>
+  <si>
+    <t>传动铝轴</t>
+  </si>
+  <si>
+    <t>铁滑块</t>
+  </si>
+  <si>
+    <t>滑动销</t>
+  </si>
+  <si>
+    <t>支撑铜管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,8 +639,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,8 +662,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -716,13 +769,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,16 +869,262 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1012,6 +1320,12 @@
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1023,16 +1337,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:E19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="名称" dataDxfId="6"/>
+    <tableColumn id="2" name="单价(不含税)" dataDxfId="5"/>
+    <tableColumn id="3" name="含税" dataDxfId="4">
+      <calculatedColumnFormula>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="数量" dataDxfId="3"/>
+    <tableColumn id="5" name="小计" dataDxfId="2">
+      <calculatedColumnFormula>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E79" totalsRowShown="0">
+  <autoFilter ref="A1:E79"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="名称"/>
+    <tableColumn id="2" name="单价(不含税)"/>
+    <tableColumn id="3" name="含税" dataDxfId="19">
+      <calculatedColumnFormula>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="数量"/>
+    <tableColumn id="5" name="小计" dataDxfId="18">
+      <calculatedColumnFormula>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E53" totalsRowShown="0">
   <autoFilter ref="A1:E53"/>
   <tableColumns count="5">
     <tableColumn id="1" name="名称"/>
     <tableColumn id="2" name="单价(不含税)"/>
-    <tableColumn id="6" name="含税" dataDxfId="9">
+    <tableColumn id="6" name="含税" dataDxfId="17">
       <calculatedColumnFormula>表1[[#This Row],[单价(不含税)]]*1.12</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="数量"/>
-    <tableColumn id="4" name="小计" dataDxfId="8">
+    <tableColumn id="4" name="小计" dataDxfId="16">
       <calculatedColumnFormula>表1[[#This Row],[含税]]*表1[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1040,36 +1390,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E19" totalsRowShown="0" tableBorderDxfId="7">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E19" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="名称" dataDxfId="6"/>
-    <tableColumn id="2" name="单价(不含税)" dataDxfId="5"/>
-    <tableColumn id="3" name="含税" dataDxfId="4">
+    <tableColumn id="1" name="名称" dataDxfId="14"/>
+    <tableColumn id="2" name="单价(不含税)" dataDxfId="13"/>
+    <tableColumn id="3" name="含税" dataDxfId="12">
       <calculatedColumnFormula>表2[[#This Row],[单价(不含税)]]*1.12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="数量" dataDxfId="3"/>
-    <tableColumn id="5" name="小计" dataDxfId="2">
+    <tableColumn id="4" name="数量" dataDxfId="11"/>
+    <tableColumn id="5" name="小计" dataDxfId="10">
       <calculatedColumnFormula>表2[[#This Row],[含税]]*表2[[#This Row],[数量]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E93" totalsRowShown="0">
-  <autoFilter ref="A1:E93"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="名称"/>
-    <tableColumn id="2" name="单价(不含税)"/>
-    <tableColumn id="3" name="含税" dataDxfId="1">
-      <calculatedColumnFormula>表3[[#This Row],[单价(不含税)]]*1.17</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="数量"/>
-    <tableColumn id="5" name="小计" dataDxfId="0">
-      <calculatedColumnFormula>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1363,6 +1695,1753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="12">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>61.6</v>
+      </c>
+      <c r="D2" s="12">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29">
+        <v>10</v>
+      </c>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29">
+        <v>10</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="29">
+        <v>300</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29">
+        <v>6</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="29">
+        <v>136</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29">
+        <v>6</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="29">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29">
+        <v>6</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="29">
+        <v>253</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29">
+        <v>6</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="29">
+        <v>78</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29">
+        <v>6</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="29">
+        <v>58</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29">
+        <v>6</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="29">
+        <v>15</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29">
+        <v>12</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29">
+        <v>6</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>61.6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>198</v>
+      </c>
+      <c r="C3" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>221.7</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1108.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>313</v>
+      </c>
+      <c r="C4" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>350.5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1752.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>157.9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>175</v>
+      </c>
+      <c r="C8" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>196</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>104.1</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>139</v>
+      </c>
+      <c r="C12" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>155.6</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>25.7</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>292</v>
+      </c>
+      <c r="C14" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>327</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>50.4</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>52.6</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>25.7</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>86.2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>104.1</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>610</v>
+      </c>
+      <c r="C21" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>683.2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>82.8</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>94</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>58.2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>58.2</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>529</v>
+      </c>
+      <c r="C26" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>592.4</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>44.8</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>41.4</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>70.5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>352.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>61.6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>369.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>123.2</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>120</v>
+      </c>
+      <c r="C34" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>134.4</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>105.2</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1262.4000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>11.2</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>134.39999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>52.6</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>631.20000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>25.7</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>616.79999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>300</v>
+      </c>
+      <c r="C39" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>336</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40">
+        <v>136</v>
+      </c>
+      <c r="C40" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>152.30000000000001</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>761.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>52.6</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>253</v>
+      </c>
+      <c r="C42" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>283.3</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1416.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>87.3</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>436.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44">
+        <v>58</v>
+      </c>
+      <c r="C44" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>324.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>66</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47">
+        <v>89</v>
+      </c>
+      <c r="C47" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>99.6</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>134</v>
+      </c>
+      <c r="C48" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>150</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49">
+        <v>120</v>
+      </c>
+      <c r="C49" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>134.4</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52">
+        <v>214</v>
+      </c>
+      <c r="C52" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>239.6</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>13.4</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55">
+        <v>135</v>
+      </c>
+      <c r="C55" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56">
+        <v>35</v>
+      </c>
+      <c r="C56" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57">
+        <v>83</v>
+      </c>
+      <c r="C57" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>92.9</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>464.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58">
+        <v>540</v>
+      </c>
+      <c r="C58" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>604.79999999999995</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>604.79999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59">
+        <v>73</v>
+      </c>
+      <c r="C59" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>81.7</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>123.2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>246.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>134.4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>338</v>
+      </c>
+      <c r="C62" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>378.5</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63">
+        <v>174</v>
+      </c>
+      <c r="C63" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>194.8</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>779.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+      <c r="C65" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>33.6</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>604.80000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66">
+        <v>184</v>
+      </c>
+      <c r="C66" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>206</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>22.4</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+      <c r="C68" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>33.6</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69">
+        <v>195</v>
+      </c>
+      <c r="C69" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>218.4</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70">
+        <v>372</v>
+      </c>
+      <c r="C70" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>416.6</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>416.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>44.8</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>44.8</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73">
+        <v>36</v>
+      </c>
+      <c r="C73" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>134.4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75">
+        <v>190</v>
+      </c>
+      <c r="C75" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>212.8</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>212.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76">
+        <v>300</v>
+      </c>
+      <c r="C76" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>336</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+      <c r="C77" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>224</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78">
+        <v>160</v>
+      </c>
+      <c r="C78" s="2">
+        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>179.2</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
+        <v>1075.1999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="27">
+        <v>41836</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="E79" s="2">
+        <f>SUBTOTAL(109,E2:E78)</f>
+        <v>57314.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2765,1659 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>55</v>
-      </c>
-      <c r="C2">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>64.349999999999994</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>321.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>198</v>
-      </c>
-      <c r="C3">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>231.66</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1158.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>313</v>
-      </c>
-      <c r="C4">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>366.21</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1831.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>72.539999999999992</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>362.69999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>5.85</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>141</v>
-      </c>
-      <c r="C8">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>164.97</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1649.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>175</v>
-      </c>
-      <c r="C9">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>204.75</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>2047.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>93</v>
-      </c>
-      <c r="C10">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>108.80999999999999</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1088.0999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>17.549999999999997</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>175.49999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>70</v>
-      </c>
-      <c r="C12">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>81.899999999999991</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>818.99999999999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>139</v>
-      </c>
-      <c r="C14">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>162.63</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1626.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>26.909999999999997</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>269.09999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16">
-        <v>292</v>
-      </c>
-      <c r="C16">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>341.64</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>3416.3999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>52.65</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>526.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
-        <v>47</v>
-      </c>
-      <c r="C18">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>54.989999999999995</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>549.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>26.909999999999997</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>269.09999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21">
-        <v>77</v>
-      </c>
-      <c r="C21">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>90.089999999999989</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>900.89999999999986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>93</v>
-      </c>
-      <c r="C22">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>108.80999999999999</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1088.0999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>42.12</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>421.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25">
-        <v>610</v>
-      </c>
-      <c r="C25">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>713.69999999999993</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>3568.4999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>86.58</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>432.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27">
-        <v>84</v>
-      </c>
-      <c r="C27" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>98.28</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>982.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>60.839999999999996</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>608.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>60.839999999999996</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>608.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31">
-        <v>529</v>
-      </c>
-      <c r="C31" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>618.92999999999995</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>3094.6499999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>46.8</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>29.25</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>292.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>43.29</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>432.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>73.709999999999994</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>368.54999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>17.549999999999997</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>87.749999999999986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>64.349999999999994</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>386.09999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39">
-        <v>110</v>
-      </c>
-      <c r="C39" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>128.69999999999999</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40">
-        <v>120</v>
-      </c>
-      <c r="C40" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>140.39999999999998</v>
-      </c>
-      <c r="D40">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>2807.9999999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42">
-        <v>94</v>
-      </c>
-      <c r="C42" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>109.97999999999999</v>
-      </c>
-      <c r="D42">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1319.7599999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>11.7</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>140.39999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>54.989999999999995</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>659.87999999999988</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45">
-        <v>23</v>
-      </c>
-      <c r="C45" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>26.909999999999997</v>
-      </c>
-      <c r="D45">
-        <v>24</v>
-      </c>
-      <c r="E45" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>645.83999999999992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47">
-        <v>300</v>
-      </c>
-      <c r="C47" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>351</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48">
-        <v>136</v>
-      </c>
-      <c r="C48" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>159.12</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>795.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>54.989999999999995</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>274.95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50">
-        <v>253</v>
-      </c>
-      <c r="C50" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>296.01</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1480.05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51">
-        <v>78</v>
-      </c>
-      <c r="C51" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>91.259999999999991</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>456.29999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52">
-        <v>58</v>
-      </c>
-      <c r="C52" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>67.86</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>339.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>17.549999999999997</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>87.749999999999986</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55">
-        <v>59</v>
-      </c>
-      <c r="C55" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>69.03</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>690.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56">
-        <v>89</v>
-      </c>
-      <c r="C56" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>104.13</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>520.65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57">
-        <v>134</v>
-      </c>
-      <c r="C57" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>156.78</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1567.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58">
-        <v>120</v>
-      </c>
-      <c r="C58" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>140.39999999999998</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>701.99999999999989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>29.25</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>146.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>17.549999999999997</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>175.49999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62">
-        <v>214</v>
-      </c>
-      <c r="C62" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>250.38</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1251.9000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>4.68</v>
-      </c>
-      <c r="D63">
-        <v>20</v>
-      </c>
-      <c r="E63" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>14.04</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>140.39999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66">
-        <v>135</v>
-      </c>
-      <c r="C66" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>157.94999999999999</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>789.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67">
-        <v>35</v>
-      </c>
-      <c r="C67" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>40.949999999999996</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="E67" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>204.74999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68">
-        <v>83</v>
-      </c>
-      <c r="C68" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>97.11</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>485.55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70">
-        <v>540</v>
-      </c>
-      <c r="C70" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>631.79999999999995</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>631.79999999999995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71">
-        <v>73</v>
-      </c>
-      <c r="C71" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>85.41</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>85.41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72">
-        <v>110</v>
-      </c>
-      <c r="C72" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>128.69999999999999</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>257.39999999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73">
-        <v>120</v>
-      </c>
-      <c r="C73" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>140.39999999999998</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>140.39999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74">
-        <v>338</v>
-      </c>
-      <c r="C74" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>395.46</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1581.84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75">
-        <v>174</v>
-      </c>
-      <c r="C75" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>203.57999999999998</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>814.31999999999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>17.549999999999997</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>70.199999999999989</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>35.099999999999994</v>
-      </c>
-      <c r="D77">
-        <v>18</v>
-      </c>
-      <c r="E77" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>631.79999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78">
-        <v>184</v>
-      </c>
-      <c r="C78" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>215.27999999999997</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>861.11999999999989</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79">
-        <v>20</v>
-      </c>
-      <c r="C79" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>23.4</v>
-      </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-      <c r="E79" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80">
-        <v>30</v>
-      </c>
-      <c r="C80" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>35.099999999999994</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>140.39999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81">
-        <v>195</v>
-      </c>
-      <c r="C81" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>228.14999999999998</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>228.14999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82">
-        <v>372</v>
-      </c>
-      <c r="C82" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>435.23999999999995</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>435.23999999999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83">
-        <v>40</v>
-      </c>
-      <c r="C83" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>46.8</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84">
-        <v>40</v>
-      </c>
-      <c r="C84" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>46.8</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85">
-        <v>36</v>
-      </c>
-      <c r="C85" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>42.12</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>84.24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>134</v>
-      </c>
-      <c r="B86">
-        <v>100</v>
-      </c>
-      <c r="C86" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>117</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88">
-        <v>300</v>
-      </c>
-      <c r="C88" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>351</v>
-      </c>
-      <c r="D88">
-        <v>6</v>
-      </c>
-      <c r="E88" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>127</v>
-      </c>
-      <c r="B89">
-        <v>300</v>
-      </c>
-      <c r="C89" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>351</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90">
-        <v>200</v>
-      </c>
-      <c r="C90" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>234</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91">
-        <v>140</v>
-      </c>
-      <c r="C91" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>163.79999999999998</v>
-      </c>
-      <c r="D91">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>982.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="27">
-        <v>41819</v>
-      </c>
-      <c r="C93" s="1">
-        <f>表3[[#This Row],[单价(不含税)]]*1.17</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4592,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4656,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>

--- a/文档资料/报价.xlsx
+++ b/文档资料/报价.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="36" windowWidth="15336" windowHeight="9672"/>
+    <workbookView xWindow="4752" yWindow="84" windowWidth="15336" windowHeight="9672"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
-    <sheet name="3" sheetId="6" r:id="rId2"/>
-    <sheet name="1" sheetId="2" r:id="rId3"/>
-    <sheet name="2" sheetId="4" r:id="rId4"/>
-    <sheet name="以前的主动带球" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
+    <sheet name="5" sheetId="8" r:id="rId1"/>
+    <sheet name="4" sheetId="7" r:id="rId2"/>
+    <sheet name="3" sheetId="6" r:id="rId3"/>
+    <sheet name="1" sheetId="2" r:id="rId4"/>
+    <sheet name="2" sheetId="4" r:id="rId5"/>
+    <sheet name="以前的主动带球" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="205">
   <si>
     <t>轮架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,64 +543,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>守门员-钣金架子前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向视觉盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向视觉保护盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门员外壳前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门员外壳后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢钣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧向轮固定座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向轮固定座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tue线圈</t>
+  </si>
+  <si>
+    <t>线圈外管</t>
+  </si>
+  <si>
+    <t>线圈屏蔽后盖</t>
+  </si>
+  <si>
+    <t>线圈安装法兰-tue</t>
+  </si>
+  <si>
+    <t>传动铝轴</t>
+  </si>
+  <si>
+    <t>铁滑块</t>
+  </si>
+  <si>
+    <t>滑动销</t>
+  </si>
+  <si>
+    <t>支撑铜管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽钢片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮系x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底板x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池模块x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池座</t>
+  </si>
+  <si>
+    <t>绝缘片</t>
+  </si>
+  <si>
+    <t>簧片安装绝缘块</t>
+  </si>
+  <si>
+    <t>接触簧片</t>
+  </si>
+  <si>
+    <t>防撞边框-后</t>
+  </si>
+  <si>
+    <t>防撞边框-左右</t>
+  </si>
+  <si>
+    <t>防撞边框-后斜面</t>
+  </si>
+  <si>
+    <t>防撞边框-前斜面</t>
+  </si>
+  <si>
+    <t>铝立柱</t>
+  </si>
+  <si>
+    <t>铝立柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝立柱x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机架3b</t>
+  </si>
+  <si>
+    <t>轮架</t>
+  </si>
+  <si>
+    <t>轮盘</t>
+  </si>
+  <si>
+    <t>锥齿轮垫圈</t>
+  </si>
+  <si>
+    <t>小轮子</t>
+  </si>
+  <si>
+    <t>零件2</t>
+  </si>
+  <si>
+    <t>钢轴</t>
+  </si>
+  <si>
+    <t>直臂</t>
+  </si>
+  <si>
+    <t>延伸片</t>
+  </si>
+  <si>
+    <t>推拉头</t>
+  </si>
+  <si>
+    <t>铰接块</t>
+  </si>
+  <si>
+    <t>主动带球x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动带球支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动带球支撑座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动轮支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动轮轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑铜管</t>
+  </si>
+  <si>
+    <t>矽钢片</t>
+  </si>
+  <si>
+    <t>滑臂</t>
+  </si>
+  <si>
+    <t>射门杆</t>
+  </si>
+  <si>
+    <t>顶尖</t>
+  </si>
+  <si>
+    <t>射门杆横轴</t>
+  </si>
+  <si>
+    <t>电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射门机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢钣金</t>
+  </si>
+  <si>
+    <t>前向视觉保护盒</t>
+  </si>
+  <si>
+    <t>前向视觉盖板</t>
+  </si>
+  <si>
+    <t>前向安装块</t>
+  </si>
+  <si>
     <t>守门员-全向安装板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>守门员-钣金架子前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前向视觉盖板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前向视觉保护盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守门员外壳前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守门员外壳后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不锈钢钣金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧向轮固定座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前向轮固定座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tue线圈</t>
-  </si>
-  <si>
-    <t>线圈外管</t>
-  </si>
-  <si>
-    <t>线圈屏蔽后盖</t>
-  </si>
-  <si>
-    <t>线圈安装法兰-tue</t>
-  </si>
-  <si>
-    <t>传动铝轴</t>
-  </si>
-  <si>
-    <t>铁滑块</t>
-  </si>
-  <si>
-    <t>滑动销</t>
-  </si>
-  <si>
-    <t>支撑铜管</t>
+    <t>全向安装板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜筒盖</t>
+  </si>
+  <si>
+    <t>镜筒座</t>
+  </si>
+  <si>
+    <t>摄像头支架</t>
+  </si>
+  <si>
+    <t>全向视觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木箱</t>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>整车装配（含螺钉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工控机底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬挂铝柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -778,13 +972,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,11 +1094,40 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -905,226 +1150,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1326,6 +1351,249 @@
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1337,16 +1605,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:E19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="B1:F61" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="B1:F61"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="名称" dataDxfId="6"/>
-    <tableColumn id="2" name="单价(不含税)" dataDxfId="5"/>
-    <tableColumn id="3" name="含税" dataDxfId="4">
+    <tableColumn id="1" name="名称"/>
+    <tableColumn id="2" name="单价(不含税)"/>
+    <tableColumn id="3" name="含税" dataDxfId="0">
+      <calculatedColumnFormula>表5[[#This Row],[单价(不含税)]]*1.17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="数量"/>
+    <tableColumn id="5" name="小计" dataDxfId="1">
+      <calculatedColumnFormula>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:E17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:E17"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="名称" dataDxfId="19"/>
+    <tableColumn id="2" name="单价(不含税)" dataDxfId="18"/>
+    <tableColumn id="3" name="含税" dataDxfId="17">
+      <calculatedColumnFormula>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="数量" dataDxfId="16"/>
+    <tableColumn id="5" name="小计" dataDxfId="15">
+      <calculatedColumnFormula>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E79" totalsRowShown="0">
+  <autoFilter ref="A1:E79"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="名称"/>
+    <tableColumn id="2" name="单价(不含税)"/>
+    <tableColumn id="3" name="含税" dataDxfId="14">
       <calculatedColumnFormula>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="数量" dataDxfId="3"/>
-    <tableColumn id="5" name="小计" dataDxfId="2">
+    <tableColumn id="4" name="数量"/>
+    <tableColumn id="5" name="小计" dataDxfId="13">
       <calculatedColumnFormula>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1354,35 +1658,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E79" totalsRowShown="0">
-  <autoFilter ref="A1:E79"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="名称"/>
-    <tableColumn id="2" name="单价(不含税)"/>
-    <tableColumn id="3" name="含税" dataDxfId="19">
-      <calculatedColumnFormula>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="数量"/>
-    <tableColumn id="5" name="小计" dataDxfId="18">
-      <calculatedColumnFormula>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E53" totalsRowShown="0">
   <autoFilter ref="A1:E53"/>
   <tableColumns count="5">
     <tableColumn id="1" name="名称"/>
     <tableColumn id="2" name="单价(不含税)"/>
-    <tableColumn id="6" name="含税" dataDxfId="17">
+    <tableColumn id="6" name="含税" dataDxfId="12">
       <calculatedColumnFormula>表1[[#This Row],[单价(不含税)]]*1.12</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="数量"/>
-    <tableColumn id="4" name="小计" dataDxfId="16">
+    <tableColumn id="4" name="小计" dataDxfId="11">
       <calculatedColumnFormula>表1[[#This Row],[含税]]*表1[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1390,17 +1676,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E19" totalsRowShown="0" tableBorderDxfId="15">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E19" totalsRowShown="0" tableBorderDxfId="10">
   <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="名称" dataDxfId="14"/>
-    <tableColumn id="2" name="单价(不含税)" dataDxfId="13"/>
-    <tableColumn id="3" name="含税" dataDxfId="12">
+    <tableColumn id="1" name="名称" dataDxfId="9"/>
+    <tableColumn id="2" name="单价(不含税)" dataDxfId="8"/>
+    <tableColumn id="3" name="含税" dataDxfId="7">
       <calculatedColumnFormula>表2[[#This Row],[单价(不含税)]]*1.12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="数量" dataDxfId="11"/>
-    <tableColumn id="5" name="小计" dataDxfId="10">
+    <tableColumn id="4" name="数量" dataDxfId="6"/>
+    <tableColumn id="5" name="小计" dataDxfId="5">
       <calculatedColumnFormula>表2[[#This Row],[含税]]*表2[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1695,10 +1981,1272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="P45" sqref="P45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>710</v>
+      </c>
+      <c r="D2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>830.69999999999993</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>830.69999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>86.58</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>86.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>98.28</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>196.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>60.839999999999996</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>60.839999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>60.839999999999996</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>60.839999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>187.2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>1123.1999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>310</v>
+      </c>
+      <c r="D8">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>362.7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>362.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>351</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>152.1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>50.309999999999995</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>201.23999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>184</v>
+      </c>
+      <c r="D12">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>215.27999999999997</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>645.83999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>338</v>
+      </c>
+      <c r="D13">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>395.46</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>1186.3799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>174</v>
+      </c>
+      <c r="D14">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>203.57999999999998</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>610.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>52.649999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>109.97999999999999</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>219.95999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>11.7</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>54.989999999999995</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>109.97999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>107.63999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>164.97</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>329.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21">
+        <v>175</v>
+      </c>
+      <c r="D21">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>204.75</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>409.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>108.80999999999999</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>217.61999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>35.099999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>81.899999999999991</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>163.79999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25">
+        <v>139</v>
+      </c>
+      <c r="D25" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>162.63</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>325.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>53.819999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27">
+        <v>292</v>
+      </c>
+      <c r="D27" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>341.64</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>683.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>52.65</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>54.989999999999995</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>109.97999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>53.819999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31">
+        <v>210</v>
+      </c>
+      <c r="D31" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>245.7</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>491.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>79.56</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>37.44</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>149.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>40.949999999999996</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>81.899999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35">
+        <v>340</v>
+      </c>
+      <c r="D35" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>397.79999999999995</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>397.79999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>159.12</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37">
+        <v>47</v>
+      </c>
+      <c r="D37" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>54.989999999999995</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>54.989999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38">
+        <v>253</v>
+      </c>
+      <c r="D38" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>296.01</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>296.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>91.259999999999991</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>91.259999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>67.86</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>35.099999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>35.099999999999994</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>35.099999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>31.589999999999996</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>63.179999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44">
+        <v>59</v>
+      </c>
+      <c r="D44" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>69.03</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>138.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45">
+        <v>89</v>
+      </c>
+      <c r="D45" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>104.13</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>104.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46">
+        <v>134</v>
+      </c>
+      <c r="D46" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>156.78</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>156.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>140.39999999999998</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>140.39999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>40.949999999999996</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>40.949999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>35.099999999999994</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>70.199999999999989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>23.4</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>117</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>85.41</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>85.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>64.349999999999994</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>64.349999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54">
+        <v>198</v>
+      </c>
+      <c r="D54" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>231.66</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>231.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55">
+        <v>313</v>
+      </c>
+      <c r="D55" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>366.21</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>366.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56">
+        <v>135</v>
+      </c>
+      <c r="D56" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>157.94999999999999</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>157.94999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>40.949999999999996</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>40.949999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58">
+        <v>83</v>
+      </c>
+      <c r="D58" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>97.11</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59">
+        <v>530</v>
+      </c>
+      <c r="D59" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>620.09999999999991</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>620.09999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+      <c r="D60" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>234</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61">
+        <v>160</v>
+      </c>
+      <c r="D61" s="2">
+        <f>表5[[#This Row],[单价(不含税)]]*1.17</f>
+        <v>187.2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f>表5[[#This Row],[含税]]*表5[[#This Row],[数量]]</f>
+        <v>187.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1728,174 +3276,288 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="12">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C2" s="13">
-        <f>TRUNC(表3[[#This Row],[单价(不含税)]]*1.12,1)</f>
-        <v>61.6</v>
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>112</v>
       </c>
       <c r="D2" s="12">
         <v>15</v>
       </c>
       <c r="E2" s="13">
-        <f>表3[[#This Row],[含税]]*表3[[#This Row],[数量]]</f>
-        <v>308</v>
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>1680</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="29">
+        <v>44</v>
+      </c>
+      <c r="C3" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>49.2</v>
+      </c>
+      <c r="D3" s="29">
+        <v>10</v>
+      </c>
+      <c r="E3" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>492</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="29">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>54.8</v>
+      </c>
       <c r="D4" s="29">
         <v>10</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>548</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="29">
+        <v>340</v>
+      </c>
+      <c r="C5" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>380.8</v>
+      </c>
       <c r="D5" s="29">
-        <v>10</v>
-      </c>
-      <c r="E5" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>2284.8000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="29">
+        <v>136</v>
+      </c>
+      <c r="C6" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>152.30000000000001</v>
+      </c>
+      <c r="D6" s="29">
+        <v>6</v>
+      </c>
+      <c r="E6" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>913.80000000000007</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" s="29">
-        <v>300</v>
-      </c>
-      <c r="C7" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="C7" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>52.6</v>
+      </c>
       <c r="D7" s="29">
         <v>6</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>315.60000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="29">
-        <v>136</v>
-      </c>
-      <c r="C8" s="30"/>
+        <v>253</v>
+      </c>
+      <c r="C8" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>283.3</v>
+      </c>
       <c r="D8" s="29">
         <v>6</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>1699.8000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" s="29">
-        <v>47</v>
-      </c>
-      <c r="C9" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="C9" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>87.3</v>
+      </c>
       <c r="D9" s="29">
         <v>6</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>523.79999999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" s="29">
-        <v>253</v>
-      </c>
-      <c r="C10" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="C10" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>64.900000000000006</v>
+      </c>
       <c r="D10" s="29">
         <v>6</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>389.40000000000003</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="29">
-        <v>78</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>16.8</v>
+      </c>
       <c r="D11" s="29">
-        <v>6</v>
-      </c>
-      <c r="E11" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>201.60000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="29">
-        <v>58</v>
-      </c>
-      <c r="C12" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>33.6</v>
+      </c>
       <c r="D12" s="29">
         <v>6</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>201.60000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" s="29">
-        <v>15</v>
-      </c>
-      <c r="C13" s="30"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="13">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>30.2</v>
+      </c>
       <c r="D13" s="29">
-        <v>12</v>
-      </c>
-      <c r="E13" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>604</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="29">
-        <v>6</v>
-      </c>
-      <c r="E14" s="30"/>
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14" s="2">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>336</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>336</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2">
+        <f>TRUNC(表4[[#This Row],[单价(不含税)]]*1.12,1)</f>
+        <v>134.4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
+        <f>表4[[#This Row],[含税]]*表4[[#This Row],[数量]]</f>
+        <v>134.4</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
@@ -1903,20 +3565,6 @@
       <c r="C17" s="30"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1927,12 +3575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:E51"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2967,7 +4615,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55">
         <v>135</v>
@@ -2986,7 +4634,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56">
         <v>35</v>
@@ -3043,7 +4691,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B59">
         <v>73</v>
@@ -3081,7 +4729,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61">
         <v>120</v>
@@ -3328,7 +4976,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74">
         <v>120</v>
@@ -3347,7 +4995,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75">
         <v>190</v>
@@ -3434,18 +5082,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4465,12 +6114,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4844,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5019,7 +6668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -5083,11 +6732,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
